--- a/Docs/Updated_GenerativeAI_Learning_Tracker_11_09_2025.xlsx
+++ b/Docs/Updated_GenerativeAI_Learning_Tracker_11_09_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pankil\AI\Generative AI\Generative-AI-Demos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AD7C2B-6F28-4D80-AF8C-767E0C899137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C55AD-80DC-4BD0-9CCA-13C768D4ED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="99">
   <si>
     <t>Phase</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Template Management Admin Panel</t>
   </si>
   <si>
-    <t>⏳ In Progress</t>
-  </si>
-  <si>
     <t>CRUD UI + backend for templates.</t>
   </si>
   <si>
@@ -311,6 +308,15 @@
   </si>
   <si>
     <t>CRUD, Parameters, Validation, Versioning, AdminLTE integration, Custom Auth (JWT)</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>Real-time Streaming (ChatGPT-style, SignalR/SSE)</t>
+  </si>
+  <si>
+    <t>Streaming responses with SignalR/SSE, real-time UI updates</t>
   </si>
 </sst>
 </file>
@@ -676,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,16 +954,16 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -965,16 +971,16 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,186 +988,200 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
         <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
         <v>76</v>
       </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>94</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Updated_GenerativeAI_Learning_Tracker_11_09_2025.xlsx
+++ b/Docs/Updated_GenerativeAI_Learning_Tracker_11_09_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pankil\AI\Generative AI\Generative-AI-Demos\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908C55AD-80DC-4BD0-9CCA-13C768D4ED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83D6C8-7194-48A9-BCFD-B0DAF93EE9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,11 +685,12 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1025,7 +1026,7 @@
         <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
